--- a/scraping/fide_chess/data.xlsx
+++ b/scraping/fide_chess/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\fide_chess\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920E0CB-4A21-4EA4-90C1-BD7AE6812A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -436,8 +430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,21 +494,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +538,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -586,7 +572,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -621,10 +606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,23 +781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -847,7 +822,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -864,7 +839,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,7 +856,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -898,7 +873,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -915,7 +890,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -932,7 +907,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -949,7 +924,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -966,7 +941,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -983,7 +958,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1000,7 +975,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1017,7 +992,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1034,7 +1009,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1051,7 +1026,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1068,7 +1043,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1085,7 +1060,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1102,7 +1077,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1119,7 +1094,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1136,7 +1111,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1153,7 +1128,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1170,7 +1145,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1187,7 +1162,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1204,7 +1179,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1221,7 +1196,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1238,7 +1213,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1255,7 +1230,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1272,7 +1247,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1289,7 +1264,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1306,7 +1281,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1323,7 +1298,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1340,7 +1315,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1357,7 +1332,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1374,7 +1349,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1391,7 +1366,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1408,7 +1383,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1425,7 +1400,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1442,7 +1417,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1459,7 +1434,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1476,7 +1451,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1493,7 +1468,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1510,7 +1485,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1527,7 +1502,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1544,7 +1519,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1561,7 +1536,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1578,7 +1553,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1595,7 +1570,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1612,7 +1587,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1629,7 +1604,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1646,7 +1621,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1663,7 +1638,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1680,7 +1655,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1697,7 +1672,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1714,7 +1689,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1731,7 +1706,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1748,7 +1723,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1765,7 +1740,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1782,7 +1757,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1799,7 +1774,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1816,7 +1791,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1833,7 +1808,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1850,7 +1825,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1867,7 +1842,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1884,7 +1859,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1901,7 +1876,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1918,7 +1893,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1935,7 +1910,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1952,7 +1927,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1969,7 +1944,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1986,7 +1961,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2003,7 +1978,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2020,7 +1995,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2037,7 +2012,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2054,7 +2029,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2071,7 +2046,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2088,7 +2063,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2105,7 +2080,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2122,7 +2097,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2139,7 +2114,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2156,7 +2131,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2173,7 +2148,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2190,7 +2165,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2207,7 +2182,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2224,7 +2199,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2241,7 +2216,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2258,7 +2233,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2275,7 +2250,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2292,7 +2267,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2309,7 +2284,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2326,7 +2301,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2343,7 +2318,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2360,7 +2335,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2377,7 +2352,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2394,7 +2369,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2411,7 +2386,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2428,7 +2403,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2445,7 +2420,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2462,7 +2437,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2479,7 +2454,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2496,7 +2471,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2513,7 +2488,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2530,7 +2505,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
